--- a/CRediT.xlsx
+++ b/CRediT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TEMPOSR-A1953\TEMPO_syst-rev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\SNC_Swiss-SEP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBE0E41-0C57-498E-96D5-E0EF7F29E272}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="5772"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -120,12 +121,6 @@
   </si>
   <si>
     <t>RP</t>
-  </si>
-  <si>
-    <t>ECE</t>
-  </si>
-  <si>
-    <t>JC</t>
   </si>
   <si>
     <t>**</t>
@@ -137,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -448,11 +443,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,12 +467,6 @@
       <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
@@ -490,13 +479,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
@@ -510,7 +493,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -524,10 +507,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -540,8 +520,8 @@
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>34</v>
+      <c r="C5" t="s">
+        <v>33</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -555,7 +535,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -569,7 +549,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -583,13 +563,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -603,10 +577,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -620,7 +591,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -633,12 +604,6 @@
       <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
@@ -651,7 +616,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -665,7 +630,7 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -679,7 +644,7 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -693,13 +658,7 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
